--- a/natmiOut/OldD7/LR-pairs_lrc2p/Fgf9-Fgfr4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Fgf9-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Fgfr4</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -443,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,55 +528,241 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>3.424501</v>
+      </c>
+      <c r="H2">
+        <v>10.273503</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M2">
+        <v>0.4279076666666666</v>
+      </c>
+      <c r="N2">
+        <v>1.283723</v>
+      </c>
+      <c r="O2">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="P2">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="Q2">
+        <v>1.465370232407667</v>
+      </c>
+      <c r="R2">
+        <v>13.188332091669</v>
+      </c>
+      <c r="S2">
+        <v>0.0198304262462706</v>
+      </c>
+      <c r="T2">
+        <v>0.0198304262462706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>2.78791085457663</v>
-      </c>
-      <c r="H2">
-        <v>2.78791085457663</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>19.7195353511937</v>
-      </c>
-      <c r="N2">
-        <v>19.7195353511937</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>54.97630665280049</v>
-      </c>
-      <c r="R2">
-        <v>54.97630665280049</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>3.424501</v>
+      </c>
+      <c r="H3">
+        <v>10.273503</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3">
+        <v>0.296848</v>
+      </c>
+      <c r="N3">
+        <v>0.890544</v>
+      </c>
+      <c r="O3">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="P3">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="Q3">
+        <v>1.016556272848</v>
+      </c>
+      <c r="R3">
+        <v>9.149006455632</v>
+      </c>
+      <c r="S3">
+        <v>0.01375675835913107</v>
+      </c>
+      <c r="T3">
+        <v>0.01375675835913107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>3.424501</v>
+      </c>
+      <c r="H4">
+        <v>10.273503</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.07261233333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.217837</v>
+      </c>
+      <c r="O4">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="P4">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="Q4">
+        <v>0.2486610081123333</v>
+      </c>
+      <c r="R4">
+        <v>2.237949073011</v>
+      </c>
+      <c r="S4">
+        <v>0.003365056606611278</v>
+      </c>
+      <c r="T4">
+        <v>0.003365056606611278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.424501</v>
+      </c>
+      <c r="H5">
+        <v>10.273503</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>20.78097133333333</v>
+      </c>
+      <c r="N5">
+        <v>62.342914</v>
+      </c>
+      <c r="O5">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="P5">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="Q5">
+        <v>71.16445711197133</v>
+      </c>
+      <c r="R5">
+        <v>640.480114007742</v>
+      </c>
+      <c r="S5">
+        <v>0.9630477587879871</v>
+      </c>
+      <c r="T5">
+        <v>0.9630477587879871</v>
       </c>
     </row>
   </sheetData>
